--- a/TestData/BillToNegative.xlsx
+++ b/TestData/BillToNegative.xlsx
@@ -85,14 +85,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="174" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="172" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="175" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="173" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="88" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="86" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="89" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="87" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="9" formatCode="0%"/>
     <numFmt numFmtId="49" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Mic Shell Dlg"/>
@@ -117,6 +117,10 @@
       <b/>
       <sz val="10"/>
       <name val="SansSerif"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Mic Shell Dlg"/>
     </font>
   </fonts>
   <fills count="2">
@@ -166,17 +170,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="88" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="86" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="89" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="87" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyBorder="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyBorder="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" applyBorder="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" applyBorder="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -311,7 +315,7 @@
     </row>
     <row r="6" s="22" customFormat="1">
       <c r="A6" s="22" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6" s="23">
         <v>5</v>
